--- a/Online Card Retailer(Fixed).xlsx
+++ b/Online Card Retailer(Fixed).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aimee/AJ_dataanalytics/CFG June24/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1C0D267-F92F-AC45-8CCB-BCD3C97366DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90659088-B915-6246-89A7-CCB1C1598A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" xr2:uid="{93257963-2494-5844-9197-E689F22D9D6C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" activeTab="9" xr2:uid="{93257963-2494-5844-9197-E689F22D9D6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="1" r:id="rId1"/>
@@ -2985,7 +2985,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="519">
   <si>
     <t>sales_id</t>
   </si>
@@ -4301,9 +4301,6 @@
     <t>papersize</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>Small</t>
   </si>
   <si>
@@ -4448,15 +4445,6 @@
     <t>Traditional</t>
   </si>
   <si>
-    <t>gift_section</t>
-  </si>
-  <si>
-    <t>gift_type</t>
-  </si>
-  <si>
-    <t>gift_size</t>
-  </si>
-  <si>
     <t>Alcohol</t>
   </si>
   <si>
@@ -4496,9 +4484,6 @@
     <t>postage</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>1st Class</t>
   </si>
   <si>
@@ -4536,6 +4521,27 @@
   </si>
   <si>
     <t>Postal</t>
+  </si>
+  <si>
+    <t>§</t>
+  </si>
+  <si>
+    <t>cardprice</t>
+  </si>
+  <si>
+    <t>giftprice</t>
+  </si>
+  <si>
+    <t>giftsection</t>
+  </si>
+  <si>
+    <t>gifttype</t>
+  </si>
+  <si>
+    <t>giftsize</t>
+  </si>
+  <si>
+    <t>postageprice</t>
   </si>
 </sst>
 </file>
@@ -19811,10 +19817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82678C0D-FAA4-684A-819C-7EAC69B412BA}">
-  <dimension ref="A1:I1001"/>
+  <dimension ref="A1:T1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K999" sqref="K999"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20132,9 +20138,6 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
         <v>1</v>
       </c>
@@ -20596,9 +20599,6 @@
       <c r="E27">
         <v>5</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
       <c r="G27">
         <v>2</v>
       </c>
@@ -20654,9 +20654,6 @@
       <c r="E29">
         <v>2</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
       <c r="G29">
         <v>1</v>
       </c>
@@ -20712,9 +20709,6 @@
       <c r="E31">
         <v>6</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
       <c r="G31">
         <v>1</v>
       </c>
@@ -20828,9 +20822,6 @@
       <c r="E35">
         <v>7</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
       <c r="G35">
         <v>2</v>
       </c>
@@ -20973,9 +20964,6 @@
       <c r="E40">
         <v>2</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
       <c r="G40">
         <v>2</v>
       </c>
@@ -21002,9 +20990,6 @@
       <c r="E41">
         <v>5</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
       <c r="G41">
         <v>1</v>
       </c>
@@ -21379,9 +21364,6 @@
       <c r="E54">
         <v>3</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
       <c r="G54">
         <v>1</v>
       </c>
@@ -21466,9 +21448,6 @@
       <c r="E57">
         <v>6</v>
       </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
       <c r="G57">
         <v>1</v>
       </c>
@@ -21611,9 +21590,6 @@
       <c r="E62">
         <v>2</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
       <c r="G62">
         <v>1</v>
       </c>
@@ -22191,9 +22167,6 @@
       <c r="E82">
         <v>7</v>
       </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
       <c r="G82">
         <v>1</v>
       </c>
@@ -22597,9 +22570,6 @@
       <c r="E96">
         <v>1</v>
       </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
       <c r="G96">
         <v>2</v>
       </c>
@@ -22771,9 +22741,6 @@
       <c r="E102">
         <v>7</v>
       </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
       <c r="G102">
         <v>2</v>
       </c>
@@ -23264,9 +23231,6 @@
       <c r="E119">
         <v>5</v>
       </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
       <c r="G119">
         <v>1</v>
       </c>
@@ -23380,9 +23344,6 @@
       <c r="E123">
         <v>3</v>
       </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
       <c r="G123">
         <v>1</v>
       </c>
@@ -23670,9 +23631,6 @@
       <c r="E133">
         <v>7</v>
       </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
       <c r="G133">
         <v>2</v>
       </c>
@@ -23815,9 +23773,6 @@
       <c r="E138">
         <v>7</v>
       </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
       <c r="G138">
         <v>2</v>
       </c>
@@ -23844,9 +23799,6 @@
       <c r="E139">
         <v>3</v>
       </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
       <c r="G139">
         <v>1</v>
       </c>
@@ -24192,9 +24144,6 @@
       <c r="E151">
         <v>2</v>
       </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
       <c r="G151">
         <v>1</v>
       </c>
@@ -24337,9 +24286,6 @@
       <c r="E156">
         <v>2</v>
       </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
       <c r="G156">
         <v>1</v>
       </c>
@@ -24366,9 +24312,6 @@
       <c r="E157">
         <v>2</v>
       </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
       <c r="G157">
         <v>2</v>
       </c>
@@ -24569,9 +24512,6 @@
       <c r="E164">
         <v>7</v>
       </c>
-      <c r="F164">
-        <v>0</v>
-      </c>
       <c r="G164">
         <v>1</v>
       </c>
@@ -24598,9 +24538,6 @@
       <c r="E165">
         <v>2</v>
       </c>
-      <c r="F165">
-        <v>0</v>
-      </c>
       <c r="G165">
         <v>2</v>
       </c>
@@ -24656,9 +24593,6 @@
       <c r="E167">
         <v>6</v>
       </c>
-      <c r="F167">
-        <v>0</v>
-      </c>
       <c r="G167">
         <v>1</v>
       </c>
@@ -24946,9 +24880,6 @@
       <c r="E177">
         <v>1</v>
       </c>
-      <c r="F177">
-        <v>0</v>
-      </c>
       <c r="G177">
         <v>2</v>
       </c>
@@ -25352,9 +25283,6 @@
       <c r="E191">
         <v>6</v>
       </c>
-      <c r="F191">
-        <v>0</v>
-      </c>
       <c r="G191">
         <v>2</v>
       </c>
@@ -25410,9 +25338,6 @@
       <c r="E193">
         <v>4</v>
       </c>
-      <c r="F193">
-        <v>0</v>
-      </c>
       <c r="G193">
         <v>2</v>
       </c>
@@ -25642,9 +25567,6 @@
       <c r="E201">
         <v>3</v>
       </c>
-      <c r="F201">
-        <v>0</v>
-      </c>
       <c r="G201">
         <v>2</v>
       </c>
@@ -25758,9 +25680,6 @@
       <c r="E205">
         <v>7</v>
       </c>
-      <c r="F205">
-        <v>0</v>
-      </c>
       <c r="G205">
         <v>1</v>
       </c>
@@ -25903,9 +25822,6 @@
       <c r="E210">
         <v>5</v>
       </c>
-      <c r="F210">
-        <v>0</v>
-      </c>
       <c r="G210">
         <v>1</v>
       </c>
@@ -26309,9 +26225,6 @@
       <c r="E224">
         <v>7</v>
       </c>
-      <c r="F224">
-        <v>0</v>
-      </c>
       <c r="G224">
         <v>2</v>
       </c>
@@ -26396,9 +26309,6 @@
       <c r="E227">
         <v>3</v>
       </c>
-      <c r="F227">
-        <v>0</v>
-      </c>
       <c r="G227">
         <v>1</v>
       </c>
@@ -26483,9 +26393,6 @@
       <c r="E230">
         <v>2</v>
       </c>
-      <c r="F230">
-        <v>0</v>
-      </c>
       <c r="G230">
         <v>1</v>
       </c>
@@ -26744,9 +26651,6 @@
       <c r="E239">
         <v>4</v>
       </c>
-      <c r="F239">
-        <v>0</v>
-      </c>
       <c r="G239">
         <v>2</v>
       </c>
@@ -27121,9 +27025,6 @@
       <c r="E252">
         <v>3</v>
       </c>
-      <c r="F252">
-        <v>0</v>
-      </c>
       <c r="G252">
         <v>2</v>
       </c>
@@ -27411,9 +27312,6 @@
       <c r="E262">
         <v>4</v>
       </c>
-      <c r="F262">
-        <v>0</v>
-      </c>
       <c r="G262">
         <v>2</v>
       </c>
@@ -27846,9 +27744,6 @@
       <c r="E277">
         <v>1</v>
       </c>
-      <c r="F277">
-        <v>0</v>
-      </c>
       <c r="G277">
         <v>1</v>
       </c>
@@ -28571,9 +28466,6 @@
       <c r="E302">
         <v>3</v>
       </c>
-      <c r="F302">
-        <v>0</v>
-      </c>
       <c r="G302">
         <v>1</v>
       </c>
@@ -28948,9 +28840,6 @@
       <c r="E315">
         <v>1</v>
       </c>
-      <c r="F315">
-        <v>0</v>
-      </c>
       <c r="G315">
         <v>2</v>
       </c>
@@ -29789,9 +29678,6 @@
       <c r="E344">
         <v>6</v>
       </c>
-      <c r="F344">
-        <v>0</v>
-      </c>
       <c r="G344">
         <v>1</v>
       </c>
@@ -29847,9 +29733,6 @@
       <c r="E346">
         <v>6</v>
       </c>
-      <c r="F346">
-        <v>0</v>
-      </c>
       <c r="G346">
         <v>2</v>
       </c>
@@ -30050,9 +29933,6 @@
       <c r="E353">
         <v>7</v>
       </c>
-      <c r="F353">
-        <v>0</v>
-      </c>
       <c r="G353">
         <v>1</v>
       </c>
@@ -30108,9 +29988,6 @@
       <c r="E355">
         <v>1</v>
       </c>
-      <c r="F355">
-        <v>0</v>
-      </c>
       <c r="G355">
         <v>2</v>
       </c>
@@ -30166,9 +30043,6 @@
       <c r="E357">
         <v>2</v>
       </c>
-      <c r="F357">
-        <v>0</v>
-      </c>
       <c r="G357">
         <v>1</v>
       </c>
@@ -30224,9 +30098,6 @@
       <c r="E359">
         <v>4</v>
       </c>
-      <c r="F359">
-        <v>0</v>
-      </c>
       <c r="G359">
         <v>1</v>
       </c>
@@ -30688,9 +30559,6 @@
       <c r="E375">
         <v>7</v>
       </c>
-      <c r="F375">
-        <v>0</v>
-      </c>
       <c r="G375">
         <v>1</v>
       </c>
@@ -30949,9 +30817,6 @@
       <c r="E384">
         <v>4</v>
       </c>
-      <c r="F384">
-        <v>0</v>
-      </c>
       <c r="G384">
         <v>2</v>
       </c>
@@ -31007,9 +30872,6 @@
       <c r="E386">
         <v>1</v>
       </c>
-      <c r="F386">
-        <v>0</v>
-      </c>
       <c r="G386">
         <v>2</v>
       </c>
@@ -31152,9 +31014,6 @@
       <c r="E391">
         <v>6</v>
       </c>
-      <c r="F391">
-        <v>0</v>
-      </c>
       <c r="G391">
         <v>2</v>
       </c>
@@ -31703,9 +31562,6 @@
       <c r="E410">
         <v>5</v>
       </c>
-      <c r="F410">
-        <v>0</v>
-      </c>
       <c r="G410">
         <v>1</v>
       </c>
@@ -32138,9 +31994,6 @@
       <c r="E425">
         <v>6</v>
       </c>
-      <c r="F425">
-        <v>0</v>
-      </c>
       <c r="G425">
         <v>2</v>
       </c>
@@ -32660,9 +32513,6 @@
       <c r="E443">
         <v>3</v>
       </c>
-      <c r="F443">
-        <v>0</v>
-      </c>
       <c r="G443">
         <v>2</v>
       </c>
@@ -33530,9 +33380,6 @@
       <c r="E473">
         <v>2</v>
       </c>
-      <c r="F473">
-        <v>0</v>
-      </c>
       <c r="G473">
         <v>2</v>
       </c>
@@ -34081,9 +33928,6 @@
       <c r="E492">
         <v>5</v>
       </c>
-      <c r="F492">
-        <v>0</v>
-      </c>
       <c r="G492">
         <v>2</v>
       </c>
@@ -34139,9 +33983,6 @@
       <c r="E494">
         <v>3</v>
       </c>
-      <c r="F494">
-        <v>0</v>
-      </c>
       <c r="G494">
         <v>2</v>
       </c>
@@ -34674,7 +34515,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>512</v>
       </c>
@@ -34703,7 +34544,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>513</v>
       </c>
@@ -34732,7 +34573,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>514</v>
       </c>
@@ -34761,7 +34602,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>515</v>
       </c>
@@ -34789,8 +34630,11 @@
       <c r="I516" s="2">
         <v>45389</v>
       </c>
-    </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T516" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="517" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>516</v>
       </c>
@@ -34819,7 +34663,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>517</v>
       </c>
@@ -34848,7 +34692,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>518</v>
       </c>
@@ -34877,7 +34721,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>519</v>
       </c>
@@ -34906,7 +34750,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>520</v>
       </c>
@@ -34935,7 +34779,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>521</v>
       </c>
@@ -34964,7 +34808,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>522</v>
       </c>
@@ -34993,7 +34837,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>523</v>
       </c>
@@ -35022,7 +34866,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>524</v>
       </c>
@@ -35051,7 +34895,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>525</v>
       </c>
@@ -35080,7 +34924,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>526</v>
       </c>
@@ -35109,7 +34953,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>527</v>
       </c>
@@ -35560,9 +35404,6 @@
       <c r="E543">
         <v>3</v>
       </c>
-      <c r="F543">
-        <v>0</v>
-      </c>
       <c r="G543">
         <v>1</v>
       </c>
@@ -35705,9 +35546,6 @@
       <c r="E548">
         <v>1</v>
       </c>
-      <c r="F548">
-        <v>0</v>
-      </c>
       <c r="G548">
         <v>1</v>
       </c>
@@ -36227,9 +36065,6 @@
       <c r="E566">
         <v>5</v>
       </c>
-      <c r="F566">
-        <v>0</v>
-      </c>
       <c r="G566">
         <v>1</v>
       </c>
@@ -36430,9 +36265,6 @@
       <c r="E573">
         <v>6</v>
       </c>
-      <c r="F573">
-        <v>0</v>
-      </c>
       <c r="G573">
         <v>1</v>
       </c>
@@ -36836,9 +36668,6 @@
       <c r="E587">
         <v>7</v>
       </c>
-      <c r="F587">
-        <v>0</v>
-      </c>
       <c r="G587">
         <v>1</v>
       </c>
@@ -36923,9 +36752,6 @@
       <c r="E590">
         <v>7</v>
       </c>
-      <c r="F590">
-        <v>0</v>
-      </c>
       <c r="G590">
         <v>2</v>
       </c>
@@ -37068,9 +36894,6 @@
       <c r="E595">
         <v>1</v>
       </c>
-      <c r="F595">
-        <v>0</v>
-      </c>
       <c r="G595">
         <v>1</v>
       </c>
@@ -37300,9 +37123,6 @@
       <c r="E603">
         <v>2</v>
       </c>
-      <c r="F603">
-        <v>0</v>
-      </c>
       <c r="G603">
         <v>2</v>
       </c>
@@ -37358,9 +37178,6 @@
       <c r="E605">
         <v>1</v>
       </c>
-      <c r="F605">
-        <v>0</v>
-      </c>
       <c r="G605">
         <v>1</v>
       </c>
@@ -37474,9 +37291,6 @@
       <c r="E609">
         <v>3</v>
       </c>
-      <c r="F609">
-        <v>0</v>
-      </c>
       <c r="G609">
         <v>1</v>
       </c>
@@ -38025,9 +37839,6 @@
       <c r="E628">
         <v>6</v>
       </c>
-      <c r="F628">
-        <v>0</v>
-      </c>
       <c r="G628">
         <v>1</v>
       </c>
@@ -38228,9 +38039,6 @@
       <c r="E635">
         <v>7</v>
       </c>
-      <c r="F635">
-        <v>0</v>
-      </c>
       <c r="G635">
         <v>2</v>
       </c>
@@ -38518,9 +38326,6 @@
       <c r="E645">
         <v>6</v>
       </c>
-      <c r="F645">
-        <v>0</v>
-      </c>
       <c r="G645">
         <v>2</v>
       </c>
@@ -38953,9 +38758,6 @@
       <c r="E660">
         <v>7</v>
       </c>
-      <c r="F660">
-        <v>0</v>
-      </c>
       <c r="G660">
         <v>1</v>
       </c>
@@ -39069,9 +38871,6 @@
       <c r="E664">
         <v>3</v>
       </c>
-      <c r="F664">
-        <v>0</v>
-      </c>
       <c r="G664">
         <v>1</v>
       </c>
@@ -39098,9 +38897,6 @@
       <c r="E665">
         <v>4</v>
       </c>
-      <c r="F665">
-        <v>0</v>
-      </c>
       <c r="G665">
         <v>1</v>
       </c>
@@ -39533,9 +39329,6 @@
       <c r="E680">
         <v>2</v>
       </c>
-      <c r="F680">
-        <v>0</v>
-      </c>
       <c r="G680">
         <v>2</v>
       </c>
@@ -39881,9 +39674,6 @@
       <c r="E692">
         <v>3</v>
       </c>
-      <c r="F692">
-        <v>0</v>
-      </c>
       <c r="G692">
         <v>2</v>
       </c>
@@ -40229,9 +40019,6 @@
       <c r="E704">
         <v>1</v>
       </c>
-      <c r="F704">
-        <v>0</v>
-      </c>
       <c r="G704">
         <v>2</v>
       </c>
@@ -40345,9 +40132,6 @@
       <c r="E708">
         <v>2</v>
       </c>
-      <c r="F708">
-        <v>0</v>
-      </c>
       <c r="G708">
         <v>1</v>
       </c>
@@ -40751,9 +40535,6 @@
       <c r="E722">
         <v>6</v>
       </c>
-      <c r="F722">
-        <v>0</v>
-      </c>
       <c r="G722">
         <v>2</v>
       </c>
@@ -41244,9 +41025,6 @@
       <c r="E739">
         <v>5</v>
       </c>
-      <c r="F739">
-        <v>0</v>
-      </c>
       <c r="G739">
         <v>2</v>
       </c>
@@ -41360,9 +41138,6 @@
       <c r="E743">
         <v>7</v>
       </c>
-      <c r="F743">
-        <v>0</v>
-      </c>
       <c r="G743">
         <v>1</v>
       </c>
@@ -41476,9 +41251,6 @@
       <c r="E747">
         <v>7</v>
       </c>
-      <c r="F747">
-        <v>0</v>
-      </c>
       <c r="G747">
         <v>1</v>
       </c>
@@ -41708,9 +41480,6 @@
       <c r="E755">
         <v>3</v>
       </c>
-      <c r="F755">
-        <v>0</v>
-      </c>
       <c r="G755">
         <v>1</v>
       </c>
@@ -41882,9 +41651,6 @@
       <c r="E761">
         <v>6</v>
       </c>
-      <c r="F761">
-        <v>0</v>
-      </c>
       <c r="G761">
         <v>2</v>
       </c>
@@ -42056,9 +41822,6 @@
       <c r="E767">
         <v>3</v>
       </c>
-      <c r="F767">
-        <v>0</v>
-      </c>
       <c r="G767">
         <v>1</v>
       </c>
@@ -42201,9 +41964,6 @@
       <c r="E772">
         <v>3</v>
       </c>
-      <c r="F772">
-        <v>0</v>
-      </c>
       <c r="G772">
         <v>1</v>
       </c>
@@ -42288,9 +42048,6 @@
       <c r="E775">
         <v>2</v>
       </c>
-      <c r="F775">
-        <v>0</v>
-      </c>
       <c r="G775">
         <v>1</v>
       </c>
@@ -42723,9 +42480,6 @@
       <c r="E790">
         <v>4</v>
       </c>
-      <c r="F790">
-        <v>0</v>
-      </c>
       <c r="G790">
         <v>2</v>
       </c>
@@ -43100,9 +42854,6 @@
       <c r="E803">
         <v>7</v>
       </c>
-      <c r="F803">
-        <v>0</v>
-      </c>
       <c r="G803">
         <v>2</v>
       </c>
@@ -44057,9 +43808,6 @@
       <c r="E836">
         <v>1</v>
       </c>
-      <c r="F836">
-        <v>0</v>
-      </c>
       <c r="G836">
         <v>2</v>
       </c>
@@ -44231,9 +43979,6 @@
       <c r="E842">
         <v>7</v>
       </c>
-      <c r="F842">
-        <v>0</v>
-      </c>
       <c r="G842">
         <v>2</v>
       </c>
@@ -44463,9 +44208,6 @@
       <c r="E850">
         <v>4</v>
       </c>
-      <c r="F850">
-        <v>0</v>
-      </c>
       <c r="G850">
         <v>2</v>
       </c>
@@ -45130,9 +44872,6 @@
       <c r="E873">
         <v>4</v>
       </c>
-      <c r="F873">
-        <v>0</v>
-      </c>
       <c r="G873">
         <v>2</v>
       </c>
@@ -45449,9 +45188,6 @@
       <c r="E884">
         <v>4</v>
       </c>
-      <c r="F884">
-        <v>0</v>
-      </c>
       <c r="G884">
         <v>2</v>
       </c>
@@ -46145,9 +45881,6 @@
       <c r="E908">
         <v>4</v>
       </c>
-      <c r="F908">
-        <v>0</v>
-      </c>
       <c r="G908">
         <v>2</v>
       </c>
@@ -46232,9 +45965,6 @@
       <c r="E911">
         <v>6</v>
       </c>
-      <c r="F911">
-        <v>0</v>
-      </c>
       <c r="G911">
         <v>1</v>
       </c>
@@ -46261,9 +45991,6 @@
       <c r="E912">
         <v>7</v>
       </c>
-      <c r="F912">
-        <v>0</v>
-      </c>
       <c r="G912">
         <v>2</v>
       </c>
@@ -47015,9 +46742,6 @@
       <c r="E938">
         <v>3</v>
       </c>
-      <c r="F938">
-        <v>0</v>
-      </c>
       <c r="G938">
         <v>2</v>
       </c>
@@ -48639,9 +48363,6 @@
       <c r="E994">
         <v>3</v>
       </c>
-      <c r="F994">
-        <v>0</v>
-      </c>
       <c r="G994">
         <v>1</v>
       </c>
@@ -48783,9 +48504,6 @@
       </c>
       <c r="E999">
         <v>2</v>
-      </c>
-      <c r="F999">
-        <v>0</v>
       </c>
       <c r="G999">
         <v>1</v>
@@ -48864,8 +48582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE48EE49-BCC1-E445-A2D6-3848EBC91101}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48879,7 +48597,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -48887,7 +48605,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -48896,7 +48614,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -48905,7 +48623,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -48914,7 +48632,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -52478,7 +52196,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -52494,7 +52212,7 @@
         <v>437</v>
       </c>
       <c r="D1" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -52502,10 +52220,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C2" t="s">
         <v>439</v>
-      </c>
-      <c r="C2" t="s">
-        <v>440</v>
       </c>
       <c r="D2">
         <v>2.69</v>
@@ -52516,10 +52234,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C3" t="s">
         <v>441</v>
-      </c>
-      <c r="C3" t="s">
-        <v>442</v>
       </c>
       <c r="D3">
         <v>3.99</v>
@@ -52530,10 +52248,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C4" t="s">
         <v>443</v>
-      </c>
-      <c r="C4" t="s">
-        <v>444</v>
       </c>
       <c r="D4">
         <v>5.99</v>
@@ -52544,10 +52262,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C5" t="s">
         <v>445</v>
-      </c>
-      <c r="C5" t="s">
-        <v>446</v>
       </c>
       <c r="D5">
         <v>9.99</v>
@@ -52575,13 +52293,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" t="s">
         <v>447</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>448</v>
-      </c>
-      <c r="C1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -52589,7 +52307,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -52601,7 +52319,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -52613,7 +52331,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -52625,7 +52343,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -52637,7 +52355,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -52649,7 +52367,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -52661,7 +52379,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -52673,7 +52391,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -52685,7 +52403,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -52697,7 +52415,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -52709,7 +52427,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -52721,7 +52439,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -52733,7 +52451,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -52745,7 +52463,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -52757,7 +52475,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -52769,7 +52487,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -52781,7 +52499,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -52793,7 +52511,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -52805,7 +52523,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -52817,7 +52535,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -52829,7 +52547,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -52841,7 +52559,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -52853,7 +52571,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -52865,7 +52583,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -52892,10 +52610,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -52903,7 +52621,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -52912,7 +52630,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -52921,7 +52639,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -52930,7 +52648,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -52939,7 +52657,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -52966,7 +52684,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -52974,7 +52692,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -52983,7 +52701,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -52992,7 +52710,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -53001,7 +52719,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -53010,7 +52728,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -53019,7 +52737,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -53028,7 +52746,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -53041,7 +52759,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53054,16 +52772,16 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
       <c r="C1" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="D1" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="E1" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -53071,13 +52789,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -53089,13 +52807,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E3">
         <v>17</v>
@@ -53107,13 +52825,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C4" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -53125,13 +52843,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -53143,13 +52861,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -53161,13 +52879,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -53179,13 +52897,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C8" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D8" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E8">
         <v>12</v>
@@ -53197,13 +52915,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D9" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E9">
         <v>40</v>
@@ -53215,13 +52933,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C10" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D10" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E10">
         <v>25</v>
@@ -53237,12 +52955,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -53250,10 +52969,10 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C1" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -53261,7 +52980,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C2">
         <v>1.35</v>
@@ -53273,7 +52992,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C3">
         <v>0.85</v>
@@ -53285,7 +53004,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C4">
         <v>3.99</v>
@@ -53297,7 +53016,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C5">
         <v>5.49</v>
@@ -53309,7 +53028,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C6">
         <v>7.19</v>
@@ -53325,7 +53044,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53335,10 +53054,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -53360,7 +53079,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -53382,7 +53101,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -53393,7 +53112,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -53404,7 +53123,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -53415,7 +53134,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -53437,7 +53156,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -53448,7 +53167,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -53514,7 +53233,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -53536,7 +53255,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -53624,7 +53343,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -53646,7 +53365,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -53657,7 +53376,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -53690,7 +53409,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -53701,7 +53420,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -53734,7 +53453,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -53745,7 +53464,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -53767,7 +53486,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -53800,7 +53519,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -53833,7 +53552,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -53844,7 +53563,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -53855,7 +53574,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -53866,7 +53585,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -53910,7 +53629,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -53932,7 +53651,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -53965,7 +53684,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -53987,7 +53706,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -53998,7 +53717,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -54020,7 +53739,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -54042,7 +53761,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -54075,7 +53794,7 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -54086,7 +53805,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -54130,7 +53849,7 @@
         <v>0</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -54152,7 +53871,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -54163,7 +53882,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -54185,7 +53904,7 @@
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -54207,7 +53926,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -54218,7 +53937,7 @@
         <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -54229,7 +53948,7 @@
         <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -54251,7 +53970,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -54284,7 +54003,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -54295,7 +54014,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -54306,7 +54025,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -54328,7 +54047,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -54361,7 +54080,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -54372,7 +54091,7 @@
         <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -54416,7 +54135,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -54427,7 +54146,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -54438,7 +54157,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
